--- a/Assets/StreamingAssets/LocalOption.xlsx
+++ b/Assets/StreamingAssets/LocalOption.xlsx
@@ -1127,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="50">
-        <v>1</v>
+        <v>0.649664044380188</v>
       </c>
     </row>
     <row r="4">
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="50">
-        <v>1</v>
+        <v>0.59394627809524536</v>
       </c>
     </row>
     <row r="5">
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="50">
-        <v>1</v>
+        <v>0.58156496286392212</v>
       </c>
     </row>
     <row r="6">
@@ -1151,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="50">
-        <v>0.9945492148399353</v>
+        <v>0.45568495988845825</v>
       </c>
     </row>
   </sheetData>
